--- a/release/train/ca_data/300351401.pdf.xlsx
+++ b/release/train/ca_data/300351401.pdf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cinnamon\nlp_live_demo\bidding documents\ca_open_bid_電力\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaowh/Downloads/bidding_document_dataset/release/train/ca_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EA8127-0A77-4BA3-AFEA-D5DB4216FF1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40CE0CA-9B60-2848-ABAC-8AA9FF847B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,9 +421,6 @@
     <t>福井国家石油備蓄基地 特別高圧電力購入（平成３０年度）</t>
   </si>
   <si>
-    <t>調達開始日;調達終了日</t>
-  </si>
-  <si>
     <t>平成３０年;平成３０年４月１日;平成３１年３月３１日</t>
   </si>
   <si>
@@ -467,6 +464,9 @@
   </si>
   <si>
     <t>＊質問箇所 所属／担当者;＊資格申請送付先　部署／担当者名;＊入札書送付先　部署／担当者名</t>
+  </si>
+  <si>
+    <t>調達年度;調達開始日;調達終了日</t>
   </si>
 </sst>
 </file>
@@ -968,21 +968,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="79.5546875" customWidth="1"/>
+    <col min="2" max="2" width="79.5" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1242,13 +1242,13 @@
         <v>7</v>
       </c>
       <c r="G12" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" t="s">
         <v>133</v>
       </c>
-      <c r="H12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1268,13 +1268,13 @@
         <v>7</v>
       </c>
       <c r="G13" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" t="s">
         <v>135</v>
       </c>
-      <c r="H13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -1294,13 +1294,13 @@
         <v>7</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2</v>
       </c>
@@ -1980,13 +1980,13 @@
         <v>7</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2</v>
       </c>
@@ -2006,13 +2006,13 @@
         <v>7</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H49" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2</v>
       </c>
@@ -2032,13 +2032,13 @@
         <v>7</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H50" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>2</v>
       </c>
@@ -2058,13 +2058,13 @@
         <v>7</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>2</v>
       </c>
@@ -2084,13 +2084,13 @@
         <v>7</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H52" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>2</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>2</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>2</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>2</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2</v>
       </c>
@@ -2210,13 +2210,13 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="H58" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>2</v>
       </c>
@@ -2234,13 +2234,13 @@
         <v>7</v>
       </c>
       <c r="G59" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="H59" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>2</v>
       </c>
@@ -2280,13 +2280,13 @@
         <v>7</v>
       </c>
       <c r="G61" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="H61" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>2</v>
       </c>
@@ -2306,13 +2306,13 @@
         <v>7</v>
       </c>
       <c r="G62" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="H62" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>2</v>
       </c>
@@ -2332,13 +2332,13 @@
         <v>7</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H63" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>2</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>2</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>2</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>2</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>2</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>2</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>2</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>2</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>2</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>2</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>2</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>2</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>3</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>3</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>3</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>3</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>3</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>3</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>3</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>3</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>3</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>3</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>3</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>3</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>3</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>3</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>3</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>3</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>3</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>3</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>3</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>3</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>3</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>3</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>3</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>3</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>3</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>3</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>3</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>3</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>3</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>3</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>3</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>3</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>3</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>3</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>3</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>3</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>3</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>4</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>4</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>4</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>4</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>4</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>4</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>4</v>
       </c>
